--- a/SAO_PEDRO_DO_SUL.xlsx
+++ b/SAO_PEDRO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92FC2741-06E8-4D1D-90B3-8836D1696EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E694591-3377-4F50-8A31-D140478B9550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{526BEB9C-5A46-43D6-9756-1EF55DFFF3DF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6913F0AA-7BE6-4A5D-B56E-AAADFFC7DA6A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8354D90-F07E-4BF5-BA33-E1D181DBFCCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3A0604-272A-4213-9CF8-C10072047DFC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35484AB4-3CF3-4608-9AF8-E0FF84F160B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B996793-7DB0-4F2C-B69B-966EDE90C531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93662D3B-6E5F-4FFE-92D4-BA7E88152402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0408F51-8BE4-497F-9B20-CCBF9E2ACC83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9198B3D7-22A8-FDEF-DD46-EE9DD2501E23}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FFE452-6884-7E66-6775-6A2F4850EED0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F0515D-7C35-3DBA-3390-BFD87263B305}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA36FC0-1DCC-5213-77E4-084193F56193}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC9D732-81F2-DF4E-A071-5E4871708879}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273CF0CF-9A58-67C7-6969-91BF49A629A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6C639E-9B06-58EC-A3C5-C78FB8872F05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CC59B1-92E4-8495-A127-8F300CAEBF5C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337F256A-1FDD-84CF-AAEB-27F766AC40BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491E31D8-3AF6-942A-F5CA-27BB2ACA2C2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F536D6-9681-4458-9642-0A45071E0413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F50F07-667C-4B92-9495-DF9984EDBDAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403A9C5F-92E5-467C-AEAE-708EC014327B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9599C89-59A9-4D13-A49D-695A6D687B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938C5731-A70E-4BDA-A1AC-F688CCC9C713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BEED4D-17DF-4C3C-BD17-561A3EC49790}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483AAD8-0A2A-4C82-B584-0639F21B4FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4486913-0E04-4A85-8B56-31FDB8BC9AF4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_PEDRO_DO_SUL.xlsx
+++ b/SAO_PEDRO_DO_SUL.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E694591-3377-4F50-8A31-D140478B9550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DEA9B8-45D2-46A1-ADC8-2193375B4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="298">
   <si>
     <t>COMARCA</t>
   </si>
@@ -919,15 +918,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO PEDRO DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,27 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6913F0AA-7BE6-4A5D-B56E-AAADFFC7DA6A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D54126D9-5115-4831-8B59-630A7DB9F295}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3A0604-272A-4213-9CF8-C10072047DFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBF5D9C-35B9-4C30-AE73-64163A23EF4B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B996793-7DB0-4F2C-B69B-966EDE90C531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5831E8B7-F994-4745-B126-09E9BA9D5013}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0408F51-8BE4-497F-9B20-CCBF9E2ACC83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1D5BDE-E539-4359-BE1F-AE91BFE48B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FFE452-6884-7E66-6775-6A2F4850EED0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5BF75A-B76F-6CE6-ADFD-FF2D60158763}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA36FC0-1DCC-5213-77E4-084193F56193}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A76926-7B5B-9D3B-4F35-3923F40F09AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273CF0CF-9A58-67C7-6969-91BF49A629A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B20E035-2C9D-8966-1CE6-F0A92F3252A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CC59B1-92E4-8495-A127-8F300CAEBF5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6E9549-C640-9D9F-5552-91FA001FF485}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491E31D8-3AF6-942A-F5CA-27BB2ACA2C2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F54D3-84D8-2E34-8961-E97E3C5C1765}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F50F07-667C-4B92-9495-DF9984EDBDAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236BA6D3-155F-4743-9C9F-735E9BFB68B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9599C89-59A9-4D13-A49D-695A6D687B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8683D30E-F52B-4F03-B627-0E5B46DD6761}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1592,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BEED4D-17DF-4C3C-BD17-561A3EC49790}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2B4371-7A63-4462-ACE8-EC719E245B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4486913-0E04-4A85-8B56-31FDB8BC9AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E2E4A5-8E3D-4A8F-861E-27A69FEF636A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1917,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5459,52 +5434,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="32">
-        <v>13</v>
-      </c>
-      <c r="C2" s="30">
-        <v>8.5967464621081863E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_PEDRO_DO_SUL.xlsx
+++ b/SAO_PEDRO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DEA9B8-45D2-46A1-ADC8-2193375B4498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E378CB-715F-4AF1-8DA3-C23BEF7891B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D54126D9-5115-4831-8B59-630A7DB9F295}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6806F0BD-6C08-4865-81AB-E7E8D39D29E9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBF5D9C-35B9-4C30-AE73-64163A23EF4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF15F3C-10B8-45CC-8BC3-0BCBF6C1E618}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5831E8B7-F994-4745-B126-09E9BA9D5013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDD19BE-D93C-450E-B542-6DE02EBB2EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1D5BDE-E539-4359-BE1F-AE91BFE48B8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E49875-BAD6-456D-BEB9-D34602BCA6F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5BF75A-B76F-6CE6-ADFD-FF2D60158763}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D5B200-A37D-9447-0A61-DDC7D1E6B4ED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A76926-7B5B-9D3B-4F35-3923F40F09AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A098BCE7-B212-FCE1-35D1-180FADF69691}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B20E035-2C9D-8966-1CE6-F0A92F3252A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC1FF75-6F4B-68C0-E318-27A1F77B2C98}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6E9549-C640-9D9F-5552-91FA001FF485}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B0F404-03F8-DBB0-231D-3BA830AE61CA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F54D3-84D8-2E34-8961-E97E3C5C1765}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FDFD4B-4CD1-29BF-31EE-0177C8801940}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236BA6D3-155F-4743-9C9F-735E9BFB68B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51067DAB-C571-4EAD-A621-6FA952F50565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8683D30E-F52B-4F03-B627-0E5B46DD6761}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C71F76-F5F2-4CDB-B584-4F014940408A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,50 +1574,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2B4371-7A63-4462-ACE8-EC719E245B3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1905,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E2E4A5-8E3D-4A8F-861E-27A69FEF636A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAB4CF1-42BA-4A89-955B-65F51F95C0D9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
